--- a/biology/Botanique/Waldsteinia/Waldsteinia.xlsx
+++ b/biology/Botanique/Waldsteinia/Waldsteinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Waldsteinia est un genre de plantes à fleurs de la famille des Rosaceae regroupant des plantes herbacées vivaces d'Europe centrale et de la zone circumboréale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes ressemblent à des potentilles.
 Les fleurs sont jaunes à 5 pétales.
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">le nom de Waldsteinia a été attribué en l'honneur du botaniste autrichien Franz de Paula Adam von Waldstein (1759-1852).
 </t>
@@ -575,9 +591,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre comprend six espèces[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre comprend six espèces :
 Waldsteinia fragarioides
 Waldsteinia geoides
 Waldsteinia idahoensis
@@ -613,7 +631,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivée comme plante ornementale en couvre-sol.
 </t>
@@ -644,7 +664,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe centrale, Sibérie, Amérique du Nord, Chine, Japon.
 </t>
